--- a/data/trans_orig/P13A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D3A98E-1DB2-4156-8B8A-6DFF2DD4F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{416AC3CA-A10A-43AC-82FC-9D55474F834C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3694E39D-D4E9-4B6D-95D9-DD9034A6588B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96997D5D-641F-4AB1-9A94-0FB332AD522C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="169">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,29%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,68%</t>
+    <t>99,71%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,19 +113,19 @@
     <t>98,49%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>2,54%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,208 +251,214 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
     <t>Malaga</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>99,44%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -461,91 +467,79 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>97,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -960,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D49E39-0AE2-4BBB-BFB8-83401CBDDFF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A9DAF5-A17D-47AA-B909-4997E7FFBBAF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,10 +1576,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,13 +1594,13 @@
         <v>319343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>575</v>
@@ -1615,13 +1609,13 @@
         <v>408052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
@@ -1630,13 +1624,13 @@
         <v>727395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,7 +1686,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1704,13 +1698,13 @@
         <v>2254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1719,13 +1713,13 @@
         <v>5067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -1734,13 +1728,13 @@
         <v>7321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,10 +1749,10 @@
         <v>194494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -1770,13 +1764,13 @@
         <v>226836</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>758</v>
@@ -1785,13 +1779,13 @@
         <v>421330</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1841,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1859,13 +1853,13 @@
         <v>6532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -1874,13 +1868,13 @@
         <v>13670</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -1889,13 +1883,13 @@
         <v>20202</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1904,13 @@
         <v>270330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>435</v>
@@ -2020,7 +2014,7 @@
         <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -2029,13 +2023,13 @@
         <v>47179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -2044,13 +2038,13 @@
         <v>54998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2059,13 @@
         <v>611964</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>886</v>
@@ -2080,13 +2074,13 @@
         <v>753102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1468</v>
@@ -2095,13 +2089,13 @@
         <v>1365067</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,7 +2151,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2169,13 +2163,13 @@
         <v>1171</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -2184,7 +2178,7 @@
         <v>30773</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>143</v>
@@ -2202,10 +2196,10 @@
         <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,10 +2214,10 @@
         <v>857074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -2235,13 +2229,13 @@
         <v>831860</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1785</v>
@@ -2250,13 +2244,13 @@
         <v>1688934</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,7 +2318,7 @@
         <v>38855</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>154</v>
@@ -2360,7 +2354,7 @@
         <v>160</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2369,13 @@
         <v>3333929</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>5111</v>
@@ -2390,13 +2384,13 @@
         <v>3624434</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>8430</v>
@@ -2405,13 +2399,13 @@
         <v>6958363</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,7 +2461,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{416AC3CA-A10A-43AC-82FC-9D55474F834C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6676CD8-F0B3-41A0-A8F9-A0C1B50430A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96997D5D-641F-4AB1-9A94-0FB332AD522C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{263A1BC9-870D-49F9-AF6A-16FD0B81BF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A9DAF5-A17D-47AA-B909-4997E7FFBBAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194FC03B-54F3-475D-9AF8-417CD5939C6F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6676CD8-F0B3-41A0-A8F9-A0C1B50430A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEF36644-754C-45D1-BCD2-963B945A311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{263A1BC9-870D-49F9-AF6A-16FD0B81BF1F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BF476A8-1414-4118-AE2C-BC60DF299BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="171">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,32%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,71%</t>
+    <t>99,68%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,19 +113,19 @@
     <t>98,49%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,409 +137,415 @@
     <t>2,54%</t>
   </si>
   <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>97,49%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -954,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194FC03B-54F3-475D-9AF8-417CD5939C6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5D88FF-89BA-46EB-B49B-E0C06BA0FE29}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1576,10 +1582,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1600,13 @@
         <v>319343</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>575</v>
@@ -1609,13 +1615,13 @@
         <v>408052</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
@@ -1624,13 +1630,13 @@
         <v>727395</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,7 +1692,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1698,13 +1704,13 @@
         <v>2254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1713,13 +1719,13 @@
         <v>5067</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -1728,13 +1734,13 @@
         <v>7321</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,10 +1755,10 @@
         <v>194494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -1764,13 +1770,13 @@
         <v>226836</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>758</v>
@@ -1779,13 +1785,13 @@
         <v>421330</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,7 +1847,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1853,13 +1859,13 @@
         <v>6532</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -1868,13 +1874,13 @@
         <v>13670</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -1883,13 +1889,13 @@
         <v>20202</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1910,13 @@
         <v>270330</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>435</v>
@@ -2014,7 +2020,7 @@
         <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -2023,13 +2029,13 @@
         <v>47179</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -2038,13 +2044,13 @@
         <v>54998</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2065,13 @@
         <v>611964</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>886</v>
@@ -2074,13 +2080,13 @@
         <v>753102</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1468</v>
@@ -2089,13 +2095,13 @@
         <v>1365067</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,7 +2157,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2163,13 +2169,13 @@
         <v>1171</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -2178,7 +2184,7 @@
         <v>30773</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>143</v>
@@ -2196,10 +2202,10 @@
         <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,10 +2220,10 @@
         <v>857074</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -2229,13 +2235,13 @@
         <v>831860</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1785</v>
@@ -2244,13 +2250,13 @@
         <v>1688934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2324,7 @@
         <v>38855</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>154</v>
@@ -2354,7 +2360,7 @@
         <v>160</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2375,13 @@
         <v>3333929</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>5111</v>
@@ -2384,13 +2390,13 @@
         <v>3624434</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>8430</v>
@@ -2399,13 +2405,13 @@
         <v>6958363</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,7 +2467,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEF36644-754C-45D1-BCD2-963B945A311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F87DF17-8B62-4AD1-A244-4DF754B99FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BF476A8-1414-4118-AE2C-BC60DF299BF3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DF96D734-9FA2-4929-966D-83FD5FACA4D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -71,481 +71,493 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>0,06%</t>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -960,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5D88FF-89BA-46EB-B49B-E0C06BA0FE29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFACFFC1-C704-4F6B-B20A-A8B2A9B58B57}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1081,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1096,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>4086</v>
+        <v>4300</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1111,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>4245</v>
+        <v>4470</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1132,7 +1144,7 @@
         <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>260138</v>
+        <v>311273</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1147,7 +1159,7 @@
         <v>529</v>
       </c>
       <c r="I5" s="7">
-        <v>267317</v>
+        <v>285335</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1162,7 +1174,7 @@
         <v>859</v>
       </c>
       <c r="N5" s="7">
-        <v>527455</v>
+        <v>596607</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1183,7 +1195,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1198,7 +1210,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1213,7 +1225,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1236,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>13165</v>
+        <v>13049</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1251,7 +1263,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>30399</v>
+        <v>28345</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1266,7 +1278,7 @@
         <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>43563</v>
+        <v>41394</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1287,7 +1299,7 @@
         <v>372</v>
       </c>
       <c r="D8" s="7">
-        <v>506132</v>
+        <v>505341</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1302,7 +1314,7 @@
         <v>677</v>
       </c>
       <c r="I8" s="7">
-        <v>524167</v>
+        <v>486624</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1317,7 +1329,7 @@
         <v>1049</v>
       </c>
       <c r="N8" s="7">
-        <v>1030301</v>
+        <v>991965</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1338,7 +1350,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1353,7 +1365,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1368,7 +1380,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1391,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5574</v>
+        <v>5367</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1406,7 +1418,7 @@
         <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>17749</v>
+        <v>16543</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1421,7 +1433,7 @@
         <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>23324</v>
+        <v>21911</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1442,7 +1454,7 @@
         <v>350</v>
       </c>
       <c r="D11" s="7">
-        <v>314454</v>
+        <v>308587</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1457,7 +1469,7 @@
         <v>503</v>
       </c>
       <c r="I11" s="7">
-        <v>351576</v>
+        <v>328900</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1472,7 +1484,7 @@
         <v>853</v>
       </c>
       <c r="N11" s="7">
-        <v>666029</v>
+        <v>637486</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1493,7 +1505,7 @@
         <v>357</v>
       </c>
       <c r="D12" s="7">
-        <v>320028</v>
+        <v>313954</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1508,7 +1520,7 @@
         <v>531</v>
       </c>
       <c r="I12" s="7">
-        <v>369325</v>
+        <v>345443</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1523,7 +1535,7 @@
         <v>888</v>
       </c>
       <c r="N12" s="7">
-        <v>689353</v>
+        <v>659397</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1546,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2178</v>
+        <v>2073</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1561,28 +1573,28 @@
         <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>19324</v>
+        <v>17137</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>21502</v>
+        <v>19210</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>77</v>
@@ -1597,7 +1609,7 @@
         <v>288</v>
       </c>
       <c r="D14" s="7">
-        <v>319343</v>
+        <v>309800</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1612,7 +1624,7 @@
         <v>575</v>
       </c>
       <c r="I14" s="7">
-        <v>408052</v>
+        <v>457472</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1621,22 +1633,22 @@
         <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
       </c>
       <c r="N14" s="7">
-        <v>727395</v>
+        <v>767272</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,7 +1660,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321521</v>
+        <v>311873</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1663,7 +1675,7 @@
         <v>596</v>
       </c>
       <c r="I15" s="7">
-        <v>427376</v>
+        <v>474609</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1678,7 +1690,7 @@
         <v>887</v>
       </c>
       <c r="N15" s="7">
-        <v>748897</v>
+        <v>786482</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1701,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2254</v>
+        <v>2024</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1716,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>5067</v>
+        <v>4620</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -1731,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>7321</v>
+        <v>6644</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -1752,7 +1764,7 @@
         <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>194494</v>
+        <v>176718</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -1767,7 +1779,7 @@
         <v>481</v>
       </c>
       <c r="I17" s="7">
-        <v>226836</v>
+        <v>204036</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -1782,7 +1794,7 @@
         <v>758</v>
       </c>
       <c r="N17" s="7">
-        <v>421330</v>
+        <v>380754</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -1803,7 +1815,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1818,7 +1830,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1833,7 +1845,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1856,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>6532</v>
+        <v>6181</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -1871,7 +1883,7 @@
         <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>13670</v>
+        <v>12749</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -1886,7 +1898,7 @@
         <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>20202</v>
+        <v>18930</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -1907,7 +1919,7 @@
         <v>360</v>
       </c>
       <c r="D20" s="7">
-        <v>270330</v>
+        <v>263114</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -1922,7 +1934,7 @@
         <v>435</v>
       </c>
       <c r="I20" s="7">
-        <v>261523</v>
+        <v>243911</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -1937,7 +1949,7 @@
         <v>795</v>
       </c>
       <c r="N20" s="7">
-        <v>531853</v>
+        <v>507025</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -1958,7 +1970,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276862</v>
+        <v>269295</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1973,7 +1985,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>275193</v>
+        <v>256660</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1988,7 +2000,7 @@
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>552055</v>
+        <v>525955</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2011,7 +2023,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>7820</v>
+        <v>7521</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>123</v>
@@ -2020,37 +2032,37 @@
         <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
       </c>
       <c r="I22" s="7">
-        <v>47179</v>
+        <v>43444</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
       </c>
       <c r="N22" s="7">
-        <v>54998</v>
+        <v>50965</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,46 +2074,46 @@
         <v>582</v>
       </c>
       <c r="D23" s="7">
-        <v>611964</v>
+        <v>609157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>886</v>
       </c>
       <c r="I23" s="7">
-        <v>753102</v>
+        <v>802123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1468</v>
       </c>
       <c r="N23" s="7">
-        <v>1365067</v>
+        <v>1411279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,7 +2125,7 @@
         <v>590</v>
       </c>
       <c r="D24" s="7">
-        <v>619784</v>
+        <v>616678</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2128,7 +2140,7 @@
         <v>953</v>
       </c>
       <c r="I24" s="7">
-        <v>800281</v>
+        <v>845567</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2143,7 +2155,7 @@
         <v>1543</v>
       </c>
       <c r="N24" s="7">
-        <v>1420065</v>
+        <v>1462244</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2157,7 +2169,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2166,46 +2178,46 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>1171</v>
+        <v>1008</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>30773</v>
+        <v>24695</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
       </c>
       <c r="N25" s="7">
-        <v>31944</v>
+        <v>25703</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2229,13 @@
         <v>760</v>
       </c>
       <c r="D26" s="7">
-        <v>857074</v>
+        <v>926687</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -2232,31 +2244,31 @@
         <v>1025</v>
       </c>
       <c r="I26" s="7">
-        <v>831860</v>
+        <v>688114</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1785</v>
       </c>
       <c r="N26" s="7">
-        <v>1688934</v>
+        <v>1614801</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,7 +2280,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858245</v>
+        <v>927695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2283,7 +2295,7 @@
         <v>1054</v>
       </c>
       <c r="I27" s="7">
-        <v>862633</v>
+        <v>712809</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2298,7 +2310,7 @@
         <v>1815</v>
       </c>
       <c r="N27" s="7">
-        <v>1720878</v>
+        <v>1640504</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2321,46 +2333,46 @@
         <v>42</v>
       </c>
       <c r="D28" s="7">
-        <v>38855</v>
+        <v>37393</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>229</v>
       </c>
       <c r="I28" s="7">
-        <v>168246</v>
+        <v>151834</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>271</v>
       </c>
       <c r="N28" s="7">
-        <v>207101</v>
+        <v>189227</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,46 +2384,46 @@
         <v>3319</v>
       </c>
       <c r="D29" s="7">
-        <v>3333929</v>
+        <v>3410675</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="H29" s="7">
         <v>5111</v>
       </c>
       <c r="I29" s="7">
-        <v>3624434</v>
+        <v>3496514</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>8430</v>
       </c>
       <c r="N29" s="7">
-        <v>6958363</v>
+        <v>6907189</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,7 +2435,7 @@
         <v>3361</v>
       </c>
       <c r="D30" s="7">
-        <v>3372784</v>
+        <v>3448068</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2438,7 +2450,7 @@
         <v>5340</v>
       </c>
       <c r="I30" s="7">
-        <v>3792680</v>
+        <v>3648348</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2453,7 +2465,7 @@
         <v>8701</v>
       </c>
       <c r="N30" s="7">
-        <v>7165464</v>
+        <v>7096416</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2467,7 +2479,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
